--- a/Raw_Data/Gender_Age_Data/Age/Profession_Age_2013.xlsx
+++ b/Raw_Data/Gender_Age_Data/Age/Profession_Age_2013.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elliott\LearnPython\Project\Project1_Datasets\Age\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elliott\Documents\GitHub\Project1\Raw_Data\Gender_Age_Data\Age\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1762,9 +1762,6 @@
     <t>Miscellaneous vehicle and mobile equipment mechanics, installers, and  repairers</t>
   </si>
   <si>
-    <t xml:space="preserve">Occupation </t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
@@ -1781,6 +1778,9 @@
   </si>
   <si>
     <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Occupation</t>
   </si>
 </sst>
 </file>
@@ -1861,11 +1861,11 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2148,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,11 +2161,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>578</v>
+      <c r="A1" s="15" t="s">
+        <v>577</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>75</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>76</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>77</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>78</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>79</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>80</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>81</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>82</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>83</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>84</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>85</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>86</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>87</v>
@@ -4700,7 +4700,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>88</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>89</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>90</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>91</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>92</v>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>93</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>94</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>95</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>96</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>97</v>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>98</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>99</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>100</v>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>101</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>102</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>103</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>104</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>105</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>106</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>107</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>108</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>109</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>110</v>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>111</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>112</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>113</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>138</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>139</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>140</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>141</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>142</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="134" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>143</v>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>144</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>145</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>146</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>147</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>148</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>166</v>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>167</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>168</v>
@@ -7412,7 +7412,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>169</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>170</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>171</v>
@@ -7517,7 +7517,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>172</v>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>173</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>174</v>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>175</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>186</v>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>187</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>188</v>
@@ -8082,7 +8082,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>189</v>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>190</v>
@@ -8152,7 +8152,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>191</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>192</v>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>193</v>
@@ -8257,7 +8257,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>194</v>
@@ -8292,7 +8292,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>195</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>196</v>
@@ -8362,7 +8362,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>197</v>
@@ -8397,7 +8397,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>198</v>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>199</v>
@@ -8467,7 +8467,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>200</v>
@@ -8502,7 +8502,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>201</v>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>202</v>
@@ -8572,7 +8572,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>203</v>
@@ -8607,7 +8607,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>204</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>205</v>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>206</v>
@@ -8712,7 +8712,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>207</v>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>208</v>
@@ -8782,7 +8782,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>209</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>210</v>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>211</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>212</v>
@@ -8922,7 +8922,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>213</v>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>214</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>215</v>
@@ -9027,7 +9027,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>216</v>
@@ -9062,7 +9062,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>217</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>218</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -20574,18 +20574,18 @@
       <c r="K571" s="11"/>
     </row>
     <row r="572" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B572" s="15" t="s">
+      <c r="B572" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="C572" s="16"/>
-      <c r="D572" s="16"/>
-      <c r="E572" s="16"/>
-      <c r="F572" s="16"/>
-      <c r="G572" s="16"/>
-      <c r="H572" s="16"/>
-      <c r="I572" s="16"/>
-      <c r="J572" s="16"/>
-      <c r="K572" s="16"/>
+      <c r="C572" s="17"/>
+      <c r="D572" s="17"/>
+      <c r="E572" s="17"/>
+      <c r="F572" s="17"/>
+      <c r="G572" s="17"/>
+      <c r="H572" s="17"/>
+      <c r="I572" s="17"/>
+      <c r="J572" s="17"/>
+      <c r="K572" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
